--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -839,13 +839,13 @@
     <t>Request.code</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType</t>
-  </si>
-  <si>
-    <t>appointmentType</t>
-  </si>
-  <si>
-    <t>Appointment.serviceType:appointmentType.id</t>
+    <t>Appointment.serviceType:appointmentServiceType</t>
+  </si>
+  <si>
+    <t>appointmentServiceType</t>
+  </si>
+  <si>
+    <t>Appointment.serviceType:appointmentServiceType.id</t>
   </si>
   <si>
     <t>Appointment.serviceType.id</t>
@@ -864,7 +864,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.extension</t>
+    <t>Appointment.serviceType:appointmentServiceType.extension</t>
   </si>
   <si>
     <t>Appointment.serviceType.extension</t>
@@ -882,7 +882,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding</t>
@@ -916,19 +916,19 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.id</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.id</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.id</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.extension</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.extension</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.extension</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.system</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.system</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.system</t>
@@ -955,7 +955,7 @@
     <t>C*E.3</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.version</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.version</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.version</t>
@@ -979,7 +979,7 @@
     <t>C*E.7</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.code</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.code</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.code</t>
@@ -1006,7 +1006,7 @@
     <t>C*E.1</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.display</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.display</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.display</t>
@@ -1030,7 +1030,7 @@
     <t>C*E.2 - but note this is not well followed</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.coding.userSelected</t>
+    <t>Appointment.serviceType:appointmentServiceType.coding.userSelected</t>
   </si>
   <si>
     <t>Appointment.serviceType.coding.userSelected</t>
@@ -1061,7 +1061,7 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>Appointment.serviceType:appointmentType.text</t>
+    <t>Appointment.serviceType:appointmentServiceType.text</t>
   </si>
   <si>
     <t>Appointment.serviceType.text</t>
@@ -1925,9 +1925,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.8203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="24.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1925,17 +1925,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.8203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="239.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="205.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1944,27 +1944,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.55859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-group-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
   </si>
   <si>
     <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}responsible-1:Ensuring that responsible entity is a participating party {(extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-responsible').value.reference in participant.extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-ext-careteam').value.reference) or (extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-responsible').value.reference in participant.actor.reference)}max-participants:Too many intended participants {extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-max-participants').exists() implies participant.actor.where(reference.startsWith('#').not()).count() &lt;= extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-max-participants').valueInteger}min-participants:Too few intended participants {extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-min-participants').exists() implies participant.actor.where(reference.startsWith('#').not()).count() &gt;= extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-min-participants').valueInteger}</t>
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}responsible-1:Ensuring that responsible entity is a participating party {(extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-responsible').value.reference in participant.extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-ext-careteam').value.reference) or (extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-responsible').value.reference in participant.actor.reference)}max-participants:Too many intended participants {extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-max-participants').exists() implies participant.actor.where(reference.startsWith('#').not()).count() &lt;= extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-max-participants').value}min-participants:Too few intended participants {extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-min-participants').exists() implies participant.actor.where(reference.startsWith('#').not()).count() &gt;= extension.where(url = 'http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-min-participants').value}</t>
   </si>
   <si>
     <t>Request</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -793,7 +793,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason|4.0.1</t>
   </si>
   <si>
     <t>n/a</t>
@@ -808,7 +808,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
@@ -829,7 +829,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.code}
@@ -1097,7 +1097,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -1151,7 +1151,7 @@
     <t>Appointment.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1311,7 +1311,7 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|4.0.1)
 </t>
   </si>
   <si>
@@ -1391,7 +1391,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1507,7 +1507,7 @@
     <t>Role of participant in encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
@@ -1950,7 +1950,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.0859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
